--- a/biology/Zoologie/Aphyosemion/Aphyosemion.xlsx
+++ b/biology/Zoologie/Aphyosemion/Aphyosemion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aphyosemion regroupe plusieurs espèces de poissons originaires des régions tropicales de l'Afrique de l'ouest (aire qui s'étend de la Côte d'Ivoire au Congo); de la famille des Nothobranchiidae, ils sont généralement très colorés. Ces poissons de 6 cm en moyenne vivent dans la nature dans des biotopes extrêmes où ils échappent à la pression concurrentielle: eaux boueuses ou polluées, mares d'eaux temporaires (qui s'assèchent en saison sèche). Selon les espèces, les œufs, dont l'enveloppe est très dure, peuvent passer par une phase d'assèchement. Leur durée de vie, dans la nature, est liée à l'importance de la saison sèche, mais en aquarium ils peuvent vivre plus de trois ans. Les poissons du genre Aphyosemion font partie de ce que les amateurs appellent les « Killies »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aphyosemion regroupe plusieurs espèces de poissons originaires des régions tropicales de l'Afrique de l'ouest (aire qui s'étend de la Côte d'Ivoire au Congo); de la famille des Nothobranchiidae, ils sont généralement très colorés. Ces poissons de 6 cm en moyenne vivent dans la nature dans des biotopes extrêmes où ils échappent à la pression concurrentielle: eaux boueuses ou polluées, mares d'eaux temporaires (qui s'assèchent en saison sèche). Selon les espèces, les œufs, dont l'enveloppe est très dure, peuvent passer par une phase d'assèchement. Leur durée de vie, dans la nature, est liée à l'importance de la saison sèche, mais en aquarium ils peuvent vivre plus de trois ans. Les poissons du genre Aphyosemion font partie de ce que les amateurs appellent les « Killies ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (31 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (31 juillet 2017) :
 Aphyosemion abacinum Huber, 1976
 Aphyosemion ahli Myers, 1933
 Aphyosemion alpha Huber, 1998
